--- a/data/long_dif/P24_8-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_8-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 14,14</t>
+          <t>7,27; 21,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,02</t>
+          <t>2,66; 11,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,78</t>
+          <t>6,52; 15,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 23,09</t>
+          <t>4,28; 14,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 23,63</t>
+          <t>7,39; 18,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,9</t>
+          <t>10,8; 26,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 17,65</t>
+          <t>9,35; 18,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 16,78</t>
+          <t>9,49; 24,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,22</t>
+          <t>8,63; 18,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 17,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 15,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 18,29</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>67,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,29%</t>
+          <t>68,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>75,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>73,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,16%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,26; 91,63</t>
+          <t>72,76; 89,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,74; 92,12</t>
+          <t>79,13; 92,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,72; 86,33</t>
+          <t>74,14; 86,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,13; 74,61</t>
+          <t>63,34; 82,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,68; 75,32</t>
+          <t>62,05; 79,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,76; 74,61</t>
+          <t>58,81; 75,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,91; 81,38</t>
+          <t>61,5; 72,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,34; 81,12</t>
+          <t>59,72; 75,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,62; 78,2</t>
+          <t>69,52; 81,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70,59; 81,46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>68,55; 77,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>63,55; 76,42</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,25</t>
+          <t>2,02; 10,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,44</t>
+          <t>2,7; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,14</t>
+          <t>6,35; 14,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 19,8</t>
+          <t>11,23; 27,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 21,79</t>
+          <t>10,33; 26,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 23,59</t>
+          <t>10,01; 22,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,3</t>
+          <t>14,49; 24,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 15,47</t>
+          <t>11,37; 23,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,68</t>
+          <t>7,37; 17,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 16,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 18,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 23,03</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 20,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 14,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 24,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 18,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 20,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 14,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 83,35</t>
+          <t>9,65; 27,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,96; 83,96</t>
+          <t>5,36; 12,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,17; 81,36</t>
+          <t>8,7; 15,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,71; 70,13</t>
+          <t>10,42; 20,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,38; 76,49</t>
+          <t>18,6; 29,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,46; 72,26</t>
+          <t>12,86; 20,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,11; 75,61</t>
+          <t>11,63; 18,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,82; 78,95</t>
+          <t>16,35; 24,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,17; 76,15</t>
+          <t>16,05; 25,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 15,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 15,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 20,78</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>62,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75,35%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,67%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,85</t>
+          <t>66,38; 83,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,82</t>
+          <t>75,26; 84,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,79</t>
+          <t>72,7; 81,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,28</t>
+          <t>61,51; 76,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,37</t>
+          <t>56,24; 68,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,69; 20,92</t>
+          <t>65,41; 75,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,87</t>
+          <t>63,86; 72,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,96</t>
+          <t>53,99; 65,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,62</t>
+          <t>64,14; 73,55</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>71,47; 78,99</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,7; 75,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>60,2; 69,31</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,68</t>
+          <t>4,63; 11,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,67</t>
+          <t>7,91; 15,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 18,56</t>
+          <t>8,67; 14,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 28,09</t>
+          <t>10,24; 25,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,91</t>
+          <t>10,39; 18,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,01; 22,05</t>
+          <t>9,77; 18,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,05</t>
+          <t>14,55; 20,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,06</t>
+          <t>16,14; 25,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,72</t>
+          <t>8,41; 13,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 15,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 16,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 21,95</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,76; 80,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>67,82; 79,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,96; 81,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,77; 71,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,01; 71,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,9; 69,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>67,6; 75,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,04; 74,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,97; 73,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,2; 15,78</t>
+          <t>9,15; 19,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,07; 20,26</t>
+          <t>8,31; 16,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,84</t>
+          <t>9,1; 18,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,7</t>
+          <t>7,49; 16,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,75; 22,79</t>
+          <t>19,39; 30,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,62</t>
+          <t>11,71; 20,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,64</t>
+          <t>14,9; 21,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,47</t>
+          <t>15,73; 24,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,39</t>
+          <t>15,43; 23,39</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 17,02</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 19,07</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 19,41</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>69,1%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>69,03%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>72,63%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,89</t>
+          <t>68,21; 80,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,31</t>
+          <t>66,52; 79,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,07</t>
+          <t>70,96; 81,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,66; 22,94</t>
+          <t>73,87; 84,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,05; 17,86</t>
+          <t>57,64; 70,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,29</t>
+          <t>58,9; 69,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,32</t>
+          <t>60,54; 69,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,72; 13,97</t>
+          <t>60,95; 70,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,85; 14,92</t>
+          <t>64,21; 73,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>64,71; 72,99</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>67,03; 74,04</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>68,53; 76,51</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>74,29%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,83; 82,32</t>
+          <t>7,74; 16,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>76,72; 82,49</t>
+          <t>10,01; 21,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>75,01; 80,37</t>
+          <t>7,23; 14,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>63,81; 69,83</t>
+          <t>6,09; 13,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>65,77; 72,05</t>
+          <t>7,67; 15,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,92; 70,35</t>
+          <t>15,43; 24,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>71,06; 75,51</t>
+          <t>13,73; 20,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>72,19; 76,45</t>
+          <t>10,46; 17,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>70,54; 74,5</t>
+          <t>8,94; 14,95</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 21,38</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11,27; 16,33</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 14,64</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,05; 18,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,37; 19,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,24; 11,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 13,33</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 13,8</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 23,6</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 17,93</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 17,18</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 13,61</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80,94%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>82,42%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>67,74%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>73,67%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>74,54%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>78,27%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>76,41; 84,87</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>75,68; 88,11</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>62,75; 72,31</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>66,3; 80,62</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>71,31; 77,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>73,85; 82,52</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 12,26</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 14,44</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 16,59</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 21,07</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 13,38</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 15,38</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 16,5</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 11,41</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 14,53</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 15,56</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 23,66</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 18,09</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>13,53; 17,71</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 21,91</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 18,93</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 13,97</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 15,08</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 18,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>78,65%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>79,73%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>77,72%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>74,04%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>65,68%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>68,91%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>66,87%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>63,75%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>72,03%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>74,21%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>68,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>74,62; 81,63</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>76,24; 82,26</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>74,8; 80,41</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>68,91; 78,05</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>62,74; 68,78</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>65,65; 71,93</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>64,26; 69,42</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>60,46; 66,87</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>69,7; 74,21</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>72,14; 76,43</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>70,02; 74,27</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 71,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 10,51</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 13,75</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 12,5</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 18,2</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 15,56</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 18,8</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 19,82</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 19,94</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 12,64</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 15,45</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 15,72</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 17,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
